--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H2">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1087903333333333</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N2">
-        <v>0.326371</v>
+        <v>0.343534</v>
       </c>
       <c r="O2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q2">
-        <v>0.1695566970813333</v>
+        <v>0.1681607327497778</v>
       </c>
       <c r="R2">
-        <v>1.526010273732</v>
+        <v>1.513446594748</v>
       </c>
       <c r="S2">
-        <v>9.279028320356706E-06</v>
+        <v>9.138000119608956E-06</v>
       </c>
       <c r="T2">
-        <v>9.279028320356707E-06</v>
+        <v>9.138000119608956E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H3">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.402575</v>
       </c>
       <c r="O3">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P3">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q3">
-        <v>0.7286676341</v>
+        <v>0.6865638910166666</v>
       </c>
       <c r="R3">
-        <v>6.5580087069</v>
+        <v>6.17907501915</v>
       </c>
       <c r="S3">
-        <v>3.987649989252816E-05</v>
+        <v>3.730847752408941E-05</v>
       </c>
       <c r="T3">
-        <v>3.987649989252817E-05</v>
+        <v>3.730847752408941E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H4">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I4">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J4">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8144386666666666</v>
+        <v>63.556834</v>
       </c>
       <c r="N4">
-        <v>2.443316</v>
+        <v>190.670502</v>
       </c>
       <c r="O4">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P4">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q4">
-        <v>1.269354786074667</v>
+        <v>93.33367681244933</v>
       </c>
       <c r="R4">
-        <v>11.424193074672</v>
+        <v>840.0030913120439</v>
       </c>
       <c r="S4">
-        <v>6.946572569125524E-05</v>
+        <v>0.005071832977469187</v>
       </c>
       <c r="T4">
-        <v>6.946572569125524E-05</v>
+        <v>0.005071832977469186</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.558564</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H5">
-        <v>4.675692</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I5">
-        <v>0.005692101168584756</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J5">
-        <v>0.005692101168584756</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>65.34528366666666</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N5">
-        <v>196.035851</v>
+        <v>0.343534</v>
       </c>
       <c r="O5">
-        <v>0.9791603749844043</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P5">
-        <v>0.9791603749844044</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q5">
-        <v>101.8448066926546</v>
+        <v>29.72148214349023</v>
       </c>
       <c r="R5">
-        <v>916.6032602338919</v>
+        <v>267.493339291412</v>
       </c>
       <c r="S5">
-        <v>0.005573479914680616</v>
+        <v>0.001615091127048673</v>
       </c>
       <c r="T5">
-        <v>0.005573479914680617</v>
+        <v>0.001615091127048672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I6">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J6">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1087903333333333</v>
+        <v>0.467525</v>
       </c>
       <c r="N6">
-        <v>0.326371</v>
+        <v>1.402575</v>
       </c>
       <c r="O6">
-        <v>0.001630158713897873</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P6">
-        <v>0.001630158713897873</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q6">
-        <v>28.23659331726423</v>
+        <v>121.3463814859834</v>
       </c>
       <c r="R6">
-        <v>254.129339855378</v>
+        <v>1092.11743337385</v>
       </c>
       <c r="S6">
-        <v>0.001545253909585235</v>
+        <v>0.006594067654206837</v>
       </c>
       <c r="T6">
-        <v>0.001545253909585235</v>
+        <v>0.006594067654206837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I7">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J7">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.467525</v>
+        <v>63.556834</v>
       </c>
       <c r="N7">
-        <v>1.402575</v>
+        <v>190.670502</v>
       </c>
       <c r="O7">
-        <v>0.007005585233201815</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P7">
-        <v>0.007005585233201815</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q7">
-        <v>121.3463814859834</v>
+        <v>16496.21266158027</v>
       </c>
       <c r="R7">
-        <v>1092.11743337385</v>
+        <v>148465.9139542225</v>
       </c>
       <c r="S7">
-        <v>0.006640707974165936</v>
+        <v>0.8964185087068999</v>
       </c>
       <c r="T7">
-        <v>0.006640707974165936</v>
+        <v>0.8964185087068998</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>259.5505726666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H8">
-        <v>778.6517180000001</v>
+        <v>1.76722</v>
       </c>
       <c r="I8">
-        <v>0.9479162344201305</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J8">
-        <v>0.9479162344201304</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.8144386666666666</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N8">
-        <v>2.443316</v>
+        <v>0.343534</v>
       </c>
       <c r="O8">
-        <v>0.01220388106849596</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P8">
-        <v>0.01220388106849596</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q8">
-        <v>211.3880223352098</v>
+        <v>0.06745557283111112</v>
       </c>
       <c r="R8">
-        <v>1902.492201016888</v>
+        <v>0.6071001554800001</v>
       </c>
       <c r="S8">
-        <v>0.01156825698775981</v>
+        <v>3.665594354397808E-06</v>
       </c>
       <c r="T8">
-        <v>0.01156825698775981</v>
+        <v>3.665594354397808E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>259.5505726666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H9">
-        <v>778.6517180000001</v>
+        <v>1.76722</v>
       </c>
       <c r="I9">
-        <v>0.9479162344201305</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J9">
-        <v>0.9479162344201304</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.34528366666666</v>
+        <v>0.467525</v>
       </c>
       <c r="N9">
-        <v>196.035851</v>
+        <v>1.402575</v>
       </c>
       <c r="O9">
-        <v>0.9791603749844043</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P9">
-        <v>0.9791603749844044</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q9">
-        <v>16960.40579674911</v>
+        <v>0.2754065101666667</v>
       </c>
       <c r="R9">
-        <v>152643.652170742</v>
+        <v>2.4786585915</v>
       </c>
       <c r="S9">
-        <v>0.9281620155486195</v>
+        <v>1.496582871453628E-05</v>
       </c>
       <c r="T9">
-        <v>0.9281620155486195</v>
+        <v>1.496582871453628E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H10">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I10">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J10">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1087903333333333</v>
+        <v>63.556834</v>
       </c>
       <c r="N10">
-        <v>0.326371</v>
+        <v>190.670502</v>
       </c>
       <c r="O10">
-        <v>0.001630158713897873</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P10">
-        <v>0.001630158713897873</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q10">
-        <v>0.05584519675622222</v>
+        <v>37.43963606049333</v>
       </c>
       <c r="R10">
-        <v>0.502606770806</v>
+        <v>336.95672454444</v>
       </c>
       <c r="S10">
-        <v>3.056140932070128E-06</v>
+        <v>0.002034502307432149</v>
       </c>
       <c r="T10">
-        <v>3.056140932070128E-06</v>
+        <v>0.002034502307432149</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5133286666666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H11">
-        <v>1.539986</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I11">
-        <v>0.001874750541781658</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J11">
-        <v>0.001874750541781658</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.467525</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N11">
-        <v>1.402575</v>
+        <v>0.343534</v>
       </c>
       <c r="O11">
-        <v>0.007005585233201815</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P11">
-        <v>0.007005585233201815</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q11">
-        <v>0.2399939848833333</v>
+        <v>2.897835366978</v>
       </c>
       <c r="R11">
-        <v>2.15994586395</v>
+        <v>26.080518302802</v>
       </c>
       <c r="S11">
-        <v>1.313372471144268E-05</v>
+        <v>0.0001574708881023654</v>
       </c>
       <c r="T11">
-        <v>1.313372471144268E-05</v>
+        <v>0.0001574708881023654</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5133286666666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H12">
-        <v>1.539986</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I12">
-        <v>0.001874750541781658</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J12">
-        <v>0.001874750541781658</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8144386666666666</v>
+        <v>0.467525</v>
       </c>
       <c r="N12">
-        <v>2.443316</v>
+        <v>1.402575</v>
       </c>
       <c r="O12">
-        <v>0.01220388106849596</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P12">
-        <v>0.01220388106849596</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q12">
-        <v>0.4180747148417778</v>
+        <v>11.831234870025</v>
       </c>
       <c r="R12">
-        <v>3.762672433575999</v>
+        <v>106.481113830225</v>
       </c>
       <c r="S12">
-        <v>2.287923264500172E-05</v>
+        <v>0.0006429195680199781</v>
       </c>
       <c r="T12">
-        <v>2.287923264500172E-05</v>
+        <v>0.0006429195680199781</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5133286666666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H13">
-        <v>1.539986</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I13">
-        <v>0.001874750541781658</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J13">
-        <v>0.001874750541781658</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.34528366666666</v>
+        <v>63.556834</v>
       </c>
       <c r="N13">
-        <v>196.035851</v>
+        <v>190.670502</v>
       </c>
       <c r="O13">
-        <v>0.9791603749844043</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P13">
-        <v>0.9791603749844044</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q13">
-        <v>33.54360733756511</v>
+        <v>1608.375660444234</v>
       </c>
       <c r="R13">
-        <v>301.892466038086</v>
+        <v>14475.38094399811</v>
       </c>
       <c r="S13">
-        <v>0.001835681443493143</v>
+        <v>0.08740052887010846</v>
       </c>
       <c r="T13">
-        <v>0.001835681443493143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>12.18925266666667</v>
-      </c>
-      <c r="H14">
-        <v>36.567758</v>
-      </c>
-      <c r="I14">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="J14">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.1087903333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.326371</v>
-      </c>
-      <c r="O14">
-        <v>0.001630158713897873</v>
-      </c>
-      <c r="P14">
-        <v>0.001630158713897873</v>
-      </c>
-      <c r="Q14">
-        <v>1.326072860690889</v>
-      </c>
-      <c r="R14">
-        <v>11.934655746218</v>
-      </c>
-      <c r="S14">
-        <v>7.256963506021151E-05</v>
-      </c>
-      <c r="T14">
-        <v>7.256963506021152E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>12.18925266666667</v>
-      </c>
-      <c r="H15">
-        <v>36.567758</v>
-      </c>
-      <c r="I15">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="J15">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.467525</v>
-      </c>
-      <c r="N15">
-        <v>1.402575</v>
-      </c>
-      <c r="O15">
-        <v>0.007005585233201815</v>
-      </c>
-      <c r="P15">
-        <v>0.007005585233201815</v>
-      </c>
-      <c r="Q15">
-        <v>5.698780352983333</v>
-      </c>
-      <c r="R15">
-        <v>51.28902317685</v>
-      </c>
-      <c r="S15">
-        <v>0.0003118670344319078</v>
-      </c>
-      <c r="T15">
-        <v>0.0003118670344319078</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>12.18925266666667</v>
-      </c>
-      <c r="H16">
-        <v>36.567758</v>
-      </c>
-      <c r="I16">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="J16">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.8144386666666666</v>
-      </c>
-      <c r="N16">
-        <v>2.443316</v>
-      </c>
-      <c r="O16">
-        <v>0.01220388106849596</v>
-      </c>
-      <c r="P16">
-        <v>0.01220388106849596</v>
-      </c>
-      <c r="Q16">
-        <v>9.927398689503111</v>
-      </c>
-      <c r="R16">
-        <v>89.34658820552799</v>
-      </c>
-      <c r="S16">
-        <v>0.0005432791223998937</v>
-      </c>
-      <c r="T16">
-        <v>0.0005432791223998939</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>12.18925266666667</v>
-      </c>
-      <c r="H17">
-        <v>36.567758</v>
-      </c>
-      <c r="I17">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="J17">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>65.34528366666666</v>
-      </c>
-      <c r="N17">
-        <v>196.035851</v>
-      </c>
-      <c r="O17">
-        <v>0.9791603749844043</v>
-      </c>
-      <c r="P17">
-        <v>0.9791603749844044</v>
-      </c>
-      <c r="Q17">
-        <v>796.5101731880063</v>
-      </c>
-      <c r="R17">
-        <v>7168.591558692056</v>
-      </c>
-      <c r="S17">
-        <v>0.04358919807761106</v>
-      </c>
-      <c r="T17">
-        <v>0.04358919807761107</v>
+        <v>0.08740052887010845</v>
       </c>
     </row>
   </sheetData>
